--- a/Extracted_Order_Details.xlsx
+++ b/Extracted_Order_Details.xlsx
@@ -468,1677 +468,1677 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>668586674396564</t>
+          <t>669309761718084</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ziaul Haque Alvi</t>
+          <t>Tahlib Ahmed Shoumik</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8801620241485</t>
+          <t>8801717268022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ziaul Haque Alvi Flat-A1, House-7, Road-5, Priyanka city, Dhaka, Dhaka - North, Uttara Sector 12 Bangladesh</t>
+          <t>Tahlib Ahmed Shoumik D block, Road 4, house 52, Apartment-5A, Basundhara R/A, Dhaka, Dhaka - North, Vatara, near boro mosjid Bangladesh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>658</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>668579693160667</t>
+          <t>669312933716361</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saam Sabbir</t>
+          <t>SAHIDA AREFIN MOHONA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8801786506216</t>
+          <t>8801799155843</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Saam Sabbir B12, Tower 2, BTI Premier plaza, north badda, Dhaka, Dhaka - North, Badda Bangladesh</t>
+          <t>SAHIDA AREFIN MOHONA Uttor Baluyadanga Dotala jame Mosjid, Rangpur, Dinajpur, Bahadur Bazar Sopnil, Bhaban Bangladesh</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1790</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>668579298312265</t>
+          <t>668684446813831</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Farhana Yasmin</t>
+          <t>Rafij Rahman Rohan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8801911427705</t>
+          <t>8801964474563</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Farhana Yasmin Flat -B4, 846 East Shewrapara, Mrt Puller 318,, Dhaka, Dhaka - North, Shewrapara Sony rangs, showroom Bangladesh</t>
+          <t>Rafij Rahman Rohan Bank Colony, Banglabazar, Kashipur, Dhaka, Narayanganj, Narayanganj Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>593</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>668580094904081</t>
+          <t>668678674994329</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shafiqul Islam</t>
+          <t>natasha</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8801827684411</t>
+          <t>8801937065905</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shafiqul Islam Badshah Meah School road, Sattar market,, Dhaka, Tongi, Boro bari Bangladesh</t>
+          <t>natasha 169/1 Elephant road shaptaq haq heritaze flat no-A1, Dhaka, Dhaka - South, Elephant Road Bangladesh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1640</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>668589616997087</t>
+          <t>669308335557515</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aski Angela</t>
+          <t>progga</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8801977107889</t>
+          <t>8801685009592</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aski Angela 25 Anowara Garden West Tejkuni Para Farmgate Dhaka, Dhaka, Dhaka - North, Farmgate Bangladesh</t>
+          <t>progga block ট, road number 4, Dhaka, Dhaka - North, Mirpur Section 6 Bangladesh</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>305</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>669215312198498</t>
+          <t>669300586954966</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Debajit Ghosh</t>
+          <t>snigdha</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8801749263286</t>
+          <t>8801321632865</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Debajit Ghosh 10, Ameena Mahal, Mayakanon, sabujbag, basabo,Dhaka, Dhaka, Dhaka - South, Basabo, Bangladesh</t>
+          <t>snigdha Daraz Rajshahi Post Office Collection Point-6000 , Lokkhipur, Near Rajshahi education board,Post code, -6000, Rajshahi, Rajshahi, Rajshahi Court Bangladesh</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>669213310065591</t>
+          <t>669300578702482</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dr. Arman Reza Chowdhury</t>
+          <t>Sumiya mridha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8801717163919</t>
+          <t>8801642323529</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Arman Reza Chowdhury House No-454, Vision Johura Twin Tower, South Building, Flat- 8C, Dhaka, Dhaka -, North, Kafrul Bangladesh</t>
+          <t>Sumiya mridha 39/c senpara ,sopnocura building ,somajkollan masjid theke samne car rastar more, Dhaka, Dhaka -, North, Mirpur 10 Bangladesh</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>329</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>668581634990001</t>
+          <t>669300771321416</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mn Mukti</t>
+          <t>S. M. Sakhawat Rahman</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8801731393539</t>
+          <t>8801712609475</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mn Mukti house no 1, lane 33, Block-D, paris road, mirpur 10. Cambridge school'S OPPOSITE, Dhaka, Dhaka -, North, Mirpur 10 Bangladesh</t>
+          <t>S. M. Sakhawat Rahman Assistant Director, Bangladesh Water Development Board., Rangpur, Rangpur, Rail Station, Bangladesh</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>668579834472818</t>
+          <t>669309710129650</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>afreen hasan priyanka</t>
+          <t>Muslimah</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8801312513630</t>
+          <t>8801781739768</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>afreen hasan priyanka 11 new eskaton mogbazar road Dhaka, Dhaka, Dhaka - South, Eskaton Garden Road Beside, Meena Bazar Bangladesh</t>
+          <t>Muslimah 249,chayanir,,mudafa shaban tola(front of uttara proborton city gate),cherag ali road, Dhaka, Tongi,, Cherag Ali in front of uttara proborton city gate Bangladesh</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>359</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>668576234623807</t>
+          <t>668672880937033</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rayana rahim</t>
+          <t>farhana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8801534651544</t>
+          <t>8801988451771</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>rayana rahim RAK Tower, Jashimuddin Road, Dhaka, Dhaka - North, Uttara Sector 1 Bangladesh</t>
+          <t>farhana gazipur,titas,Cumilla, Chattogram, Comilla - Daudkandi, Daudkandi Gouripur beside gazipur khan high, school and college Bangladesh</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>359</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>668576018924481</t>
+          <t>668669694505401</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>khalid hossain</t>
+          <t>mahfuja yesmin</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8801810099621</t>
+          <t>8801790550747</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>khalid hossain DEX UTTARA SECTOR 11 STATION 34,Jewel Tower(1st floor), Gareeb E Newaz Avenew, Sector 11 ,, Dhaka, Dhaka, Dhaka - North, Uttara Sector 11 1230 Bangladesh</t>
+          <t>mahfuja yesmin 6/3D champatoli lane shoyari ghat, Dhaka, Dhaka - South, Chawk Bazar Bangladesh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>337</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>668563692010609</t>
+          <t>668681604385573</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shajnin Mahbub</t>
+          <t>Mohammad Ashraful Kabir</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8801722081734</t>
+          <t>8801894799073</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Shajnin Mahbub 914/2-B, Shahidbagh, Dhaka-1217, Dhaka, Dhaka - South, Shahidbagh Bangladesh</t>
+          <t>Mohammad Ashraful Kabir Intaj Villa, Digonto Abashik Elaka, College Road, Sylhet, Moulvibazar, Sreemangal, Bangladesh</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>342</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>668569069318345</t>
+          <t>669301529484308</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tomal</t>
+          <t>md alamin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8801826685904</t>
+          <t>8801612269888</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tomal DEX Baipail Station, SM-Center, Palash Bari Road Baipail Savar, Dhaka, Savar, Savar Baipayl Bangladesh</t>
+          <t>md alamin 20 k.r road lalbagh posta dhaka, Dhaka, Dhaka - South, Lalbagh Bangladesh</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>398</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>668560240232556</t>
+          <t>668681000792226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sadia Tasnim Joyee</t>
+          <t>FARDOUS ARA MISHU</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8801408783605</t>
+          <t>8801815163199</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sadia Tasnim Joyee 32-33, north bashabo,navana silver dale tower, block #5, flat no D#7, sabujbag, dhaka, Dhaka,, Dhaka - South, Basabo Bangladesh</t>
+          <t>FARDOUS ARA MISHU Daraz Daganbhuiyan Post Office Collection Point-3920, Chaomuhuni Road, Opposite Site Of, Dak Banglo, Daganbhuiyan, Feni, Chattogram, Feni - Daganbhuiyan, Daganbhuiyan Upazila Parishad Bangladesh</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>868</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>668557860404511</t>
+          <t>668670060347700</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Akhi</t>
+          <t>Abner Sakib</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8801825310703</t>
+          <t>8801745900946</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Akhi 258/3, Dhaka, Manikganj - Singair, Singair Sadar Bangladesh</t>
+          <t>Abner Sakib shambabulen, Barishal, Barishal - Town, Barishal Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>384</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>669192916441114</t>
+          <t>668674826980790</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rehana Sultana</t>
+          <t>Aminul</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8801881995100</t>
+          <t>8801744522375</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rehana Sultana Eunoos Trade center, Dilkusha,Motijheel., Dhaka, Dhaka - South, Dilkusha Eunoos Trade Center, Bangladesh</t>
+          <t>Aminul House-120,Road-07, Block-D,Bashundhara-R/A, Dhaka, Dhaka - North, Bashundhara Bangladesh</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>694</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>669192715892530</t>
+          <t>668667657456468</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Amirul Islam</t>
+          <t>Osman goni abid</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8801775219375</t>
+          <t>8801957371966</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Amirul Islam House-03,Road-07,Bosila Model Town Housing,Shahinoor Jame, Moshjid,Bosila,Mohammadpur,Dhaka-1207, Dhaka, Dhaka - North, Mohammadpur Mohammadia Non Housing, Area Bangladesh</t>
+          <t>Osman goni abid joni tawer ar pasay, Dhaka, Keraniganj - Dhaka, Kodomtoly Bangladesh</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>377</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>669190709061788</t>
+          <t>669291583312926</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SADIA CHOWDHURY</t>
+          <t>Musaddek hossan mahin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8801319406602</t>
+          <t>8801810099633</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SADIA CHOWDHURY Hillview Abashik, Shalashahar A Block, 2no road Al-Noor Tower, Chattogram, Chattogram, Sadar, Panchlaish Bangladesh</t>
+          <t>Musaddek hossan mahin DEX BRAHAMANBARIA STATION Holding no:0571, Word no: khoyasar, Obaidul Muktadi, Road, Brahamanbaria sadar, Brahamanbaria., Chattogram, Brahmanbaria, Brahmanbaria Sadar 3400 Bangladesh</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>669182918298822</t>
+          <t>669294751466499</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mostafa rafi</t>
+          <t>Asp Rafiqul Islam</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8801875371913</t>
+          <t>8801717820875</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>mostafa rafi rayer bazar,baroikhali 6 talar samne,258/1,, Dhaka, Dhaka - South, Hazaribagh Bangladesh</t>
+          <t>Asp Rafiqul Islam rab 5 headquarter, Rajshahi, Rajshahi, Rajshahi Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>305</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>669186907630416</t>
+          <t>668673609094876</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Shayer Ahmed</t>
+          <t>Zarin Saima</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8801713086664</t>
+          <t>8801708625236</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shayer Ahmed Ga-125/A.Middle Badda beside kuwait masjid behind holland center., Dhaka, Dhaka - North, Badda, Hossain Market Bangladesh</t>
+          <t>Zarin Saima MIST officers mess,mirpur cantonment, Dhaka, Dhaka - North, Mirpur Section 12 Bangladesh</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>668548430065205</t>
+          <t>668672419849890</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Joy Dev</t>
+          <t>Asif Hasan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8801796212345</t>
+          <t>8801918100004</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Joy Dev Behind Coal and Coffee restaurant, Dhaka, Dhaka - North, Uttara Sector 9 Bangladesh</t>
+          <t>Asif Hasan লিতফপুর, থানার িপেছ �জাড়া ছয় তলা, Dhaka, Gazipur, Kaliakoir Chandra Bus Stand Bangladesh</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>265</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>668529890011860</t>
+          <t>669284987091589</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sakia Salam</t>
+          <t>MD. SADIK HASAN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8801940607007</t>
+          <t>8801760966096</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sakia Salam BTI Southern Height, Flat B1,House 1, Road 9, Sector 4, Uttara, Dhaka, Dhaka - North, Uttara Sector 4, Bangladesh</t>
+          <t>MD. SADIK HASAN house 2, road 3, b block, Dhaka, Dhaka - North, Mirpur Section 13 Bangladesh</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>562</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>669157375290649</t>
+          <t>669288159473512</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hasnatul jannat</t>
+          <t>sakib</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8801903359298</t>
+          <t>8801931242332</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hasnatul jannat Bejoy nogor. Sohojatri high school er samne, Chattogram, Chattogram Sadar, Patenga Bangladesh</t>
+          <t>sakib Daraz Kustia Post Office Collection Point-7000 , Beside of Kushtia Sadar Hospital (West side), Post Code -, 7000, Khulna, Kushtia, Kushtia Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>437</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>668522675352514</t>
+          <t>669296903899444</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ahned Riyhan</t>
+          <t>MD. Mazharul Islam</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8801810099635</t>
+          <t>8801700799353</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ahned Riyhan DEX COMILLA STATION Holding No: 853, Momtaz Mahal, Road: South Talpukur Par, Mahalla: 1st, Kandirpar,Ranir Bazar, Old Momota Ma O Shishu General Hospital Building, Comilla, Chattogram, Comilla Sadar,, Badurtola 1234 Bangladesh</t>
+          <t>MD. Mazharul Islam Alor Sondhan Villa 1st Floor Right Side House 362-05 Ward 03 Opposite of Esquire Building, Kolil Box Road Gawair Dakshinkhan, Dhaka, Dhaka - North, Gawair Bangladesh</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>255</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>668524868270542</t>
+          <t>668657851450967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>noyon</t>
+          <t>sunjida</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8801726692233</t>
+          <t>8801701639661</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>noyon house 1 block E lalmatia mohammedpur dhaka 1207, Dhaka, Dhaka - South, Lalmatia city hospital and, diagnostic centre Bangladesh</t>
+          <t>sunjida 354/1(sajkomol) , left jamtola , masjid road , kachabazar, azampur, uttara ,dhaka, Dhaka, Dhaka - North,, Dakkhinkhan Azompur Brac Market Bangladesh</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1730</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>668525441761561</t>
+          <t>668667607757745</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Syed Altaful Huda</t>
+          <t>Nahidul Islam</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8801730334500</t>
+          <t>8801810099615</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Syed Altaful Huda 8/1,Gopikishen Lane, Wari, Dhaka, Dhaka - South, Wari Sahera garden, Apparment A3., Bangladesh</t>
+          <t>Nahidul Islam DEX MIRPUR PIRERBAG STATION Saleh Tower 242, South Pirerbagh 60feet Road, Kamal Sarani,, Amtola bazar Mirpur, Dhaka- 1216, Dhaka, Dhaka - North, Mirpur Shewrapara 1216 Bangladesh</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>550</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>669167722996094</t>
+          <t>668666407527285</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A.R. Doha</t>
+          <t>syeda sara</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8801709069469</t>
+          <t>8801311848600</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A.R. Doha 145, Osman Gani Road, Housebuilding, Bonomala Road, Dhaka, Tongi, Bonomala Bangladesh</t>
+          <t>syeda sara Road -5,house -30,sector 10, uttara,Dhaka, Dhaka, Dhaka - North, Uttara Sector 10 Bangladesh</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>539</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>668537610656468</t>
+          <t>669290726460109</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Osman goni abid</t>
+          <t>orpi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8801957371966</t>
+          <t>8801580330801</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Osman goni abid joni tawer ar pasay, Dhaka, Keraniganj - Dhaka, Kodomtoly Bangladesh</t>
+          <t>orpi monumia market, west box nagar, sarulia, demra,dhaka, Dhaka, Dhaka - South, Demra Bangladesh</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>345</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>669163701256832</t>
+          <t>669279592756468</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MD ALSHARIYAR HOSSAIN</t>
+          <t>Osman goni abid</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8801882462297</t>
+          <t>8801957371966</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MD ALSHARIYAR HOSSAIN Ayman Cottage,House 202,Road 3/A,Block B,Shagufta Housing, Dhaka, Dhaka - North,, Mirpur Section 12 Bangladesh</t>
+          <t>Osman goni abid joni tawer ar pasay, Dhaka, Keraniganj - Dhaka, Kodomtoly Bangladesh</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>551</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>668520806680569</t>
+          <t>668644299659831</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Masqura Begum</t>
+          <t>Moriam Akter Ritu</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8801754681305</t>
+          <t>8801600299463</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Masqura Begum House no. 171, cha-bagan, DC banglow road, joydebpur, Dhaka, Gazipur, Joydebpur Rail Gate, Bangladesh</t>
+          <t>Moriam Akter Ritu Road-2,House-65/b(Matrichaya), Dhaka, Dhaka - North, Mohammadpur Mohammadia Housing, Society Bangladesh</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>805</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>669140375584122</t>
+          <t>668663814456468</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIASAT NOMAN</t>
+          <t>Osman goni abid</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8801747131627</t>
+          <t>8801957371966</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RIASAT NOMAN New Dhanshiri Hotel And Restaurent, Pollibiddut, Nobinogor, Savar, Dhaka 1344, Dhaka, Savar,, Savar Polli Biddyut Bangladesh</t>
+          <t>Osman goni abid joni tawer ar pasay, Dhaka, Keraniganj - Dhaka, Kodomtoly Bangladesh</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1192</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>669142537800786</t>
+          <t>668654081215120</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TAUHID</t>
+          <t>Rifat faisal</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8801603546564</t>
+          <t>8801550169764</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TAUHID ataiya bari,dewan bari., Dhaka, Tongi, Mirarbazar ataiya bari,dewan bari. Bangladesh</t>
+          <t>Rifat faisal House#7A,Road#41, Dhaka, Dhaka - North, Gulshan 2 Bangladesh</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>630</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>668507474968131</t>
+          <t>668662005482435</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Afrin Liza</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8801569131323</t>
+          <t>8801621313879</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rahaf ka-107,Akon bari , Kalachandpur,Gulsan-2, Dhaka, Dhaka - North, Gulshan 2 Bangladesh</t>
+          <t>Afrin Liza Christian building ,solmaid,notunbazar, Dhaka, Dhaka - North, Notunbazar Bus Stand Bangladesh</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>865</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>668506272688661</t>
+          <t>669286109420866</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Yeasfi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8801839358155</t>
+          <t>8801744555554</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sarah Kurial,Atlapur bazer,Rupganj, Narayanganj, Dhaka, Narayanganj, Araihazar Bangladesh</t>
+          <t>Yeasfi House-37/24,Arabari Bot-tola, 2nd Floor, Dhaka, Dhaka - South, Konapara Arabari,Bot-tola Bangladesh</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>467</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>668513424824460</t>
+          <t>668654242475709</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>12 12 2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Md.Shahin alam</t>
+          <t>Khorshed</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8801710555933</t>
+          <t>8801810099619</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Md.Shahin alam vision emporium joydebpur,shibbari, Dhaka, Gazipur, Gazipur Sadar Bangladesh</t>
+          <t>Khorshed DEX JIGATALA STATION House:-44, Road:-02, West Dhanmondi, Jhigatola, Dhaka, Dhaka - South,, Dhanmondi 2A 1209 Bangladesh</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>377</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>668507453528584</t>
+          <t>668641484744132</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tamanna</t>
+          <t>Brishty</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8801882442920</t>
+          <t>8801731954647</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>tamanna green sign hospital..ukiler mor....sorkari clg road.., Rangpur, Nilphamari, College Station mobile no..., 01882442920 Bangladesh</t>
+          <t>Brishty Baroikhali Road13 House38 Raybajar Dhaka, Dhaka, Dhaka - North, Mohammadpur Residential Area, Bangladesh</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>668503855512012</t>
+          <t>668641888764388</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ema</t>
+          <t>Tasnim</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8801760523468</t>
+          <t>8801328301905</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ema 351/4, West Shewrapara, Oli miar tek, Pirerbag Road, Dhaka, Dhaka - North, Mirpur Shewrapara Bangladesh</t>
+          <t>Tasnim Dwipchar,pabna, Rajshahi, Pabna, Pabna Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1326</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>668510800648026</t>
+          <t>669282359268144</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pranta Biswas</t>
+          <t>Jajiba Aynan</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8801952660487</t>
+          <t>8801886230804</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pranta Biswas Daraz Jahangirnagar University Post Office Collection Point-1342 , Jahangirnagar University, Post, Code 1342, Dhaka, Savar, Jahangirnagar University Bangladesh</t>
+          <t>Jajiba Aynan R. R. Transient Palace House , 10 and 12 Road, 4 Block, D Sector 1, Aftab nagar, Dhaka, Dhaka, Dhaka -, North, Aftab nagar Bangladesh</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>265</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>668493290568566</t>
+          <t>669281347536292</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>মাহমুদা</t>
+          <t>Tashin</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8801866925173</t>
+          <t>8809638556677</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>মাহমুদা কাঁটাবন �মাড়, Top ten ��ািরয়াস �রস্ট �ের�, Dhaka, Dhaka - South, Shahbagh নীলে�ত Bangladesh</t>
+          <t>Tashin Daraz DIGIBOX Lalbagh,236/1, Sheikh Shaheb Bazar, Lalbagh Road, Dhaka, Dhaka, Dhaka - South, Lalbagh, Bangladesh</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>305</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>668492086016180</t>
+          <t>668644877700696</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Arif miah</t>
+          <t>Kamal Pasha</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8801749439860</t>
+          <t>88001755521819</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Arif miah Amdia bazar, Dhaka, Narsingdi, Panchdona Bangladesh</t>
+          <t>Kamal Pasha House 591, Road 20, Block J, Bashundhara R/A, Dhaka, Dhaka - North, Bashundhara R/A Just beside, Playpen School Bangladesh</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>618</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>669128123813744</t>
+          <t>669278959188166</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nitu</t>
+          <t>shanjida</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8801723766387</t>
+          <t>8801309817412</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nitu 56 house/ F block /4 Road / 1 Sector /lift 5 Aftabnagor nagor Dhaka, Dhaka, Dhaka - North, Aftab nagar, Bangladesh</t>
+          <t>shanjida Ka -157/a Al Hera Tower Kuril, Dhaka, Dhaka - North, Kuril Bangladesh</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>377</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>669127718852159</t>
+          <t>668644683520253</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rokeya Akter Popy</t>
+          <t>Tasin</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8801847155896</t>
+          <t>8801317150017</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rokeya Akter Popy 31/17 (Bandhan Tower) Midlle Paikpara, Ansar camp, mirpur 1, Dhaka, Dhaka - North, Mirpur 1, Bangladesh</t>
+          <t>Tasin charnarayondia gatepara, Dhaka, Gopalganj, Gopalganj Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>305</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>669122542872664</t>
+          <t>669281738836283</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sakil hasan</t>
+          <t>Tazul Islam</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8801984387895</t>
+          <t>8801710544554</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sakil hasan সােদক মা�ার �ুল এর সামেন, Dhaka, Dhaka - North, Uttarkhan Master Para Bazar Bangladesh</t>
+          <t>Tazul Islam 46/k joar sahara dhaka, Dhaka, Dhaka - North, Joar Shahara Bangladesh</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>377</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>669124508511943</t>
+          <t>668646884684743</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jannatul</t>
+          <t>Sadia Sultana Shammi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8801581040410</t>
+          <t>8801681776722</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jannatul House no.470,Ibrahimpur, Bou bazar,Barnomala shorok, Dhaka, Dhaka - North, Mirpur Cantonment, Bangladesh</t>
+          <t>Sadia Sultana Shammi House No-98, 3rd Floor, Right Side Flat, Sileti Para, Dokkhin Purbo Moneshwar Road, just, Opposite Of jigatola Gabtola Boro Moshjid Monershor Road, jigatola, Dhaka 1209, Dhaka, Dhaka - South,, Hazaribagh Bangladesh</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>354</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>668492259276121</t>
+          <t>668653637008007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ira</t>
+          <t>kazi Reyaz mamun</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8801973390547</t>
+          <t>8801911709130</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ira BM college road,boidhhopara mor,jahanara los Bari, Barishal, Barishal - Town, Barishal Sadar Bangladesh</t>
+          <t>kazi Reyaz mamun street 06, house,150 jarnalist Residential area, Dhaka, Dhaka - North, Mirpur Section 11 Mirpur, 11 jarnalist Residential area Bangladesh</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>467</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>668487078684242</t>
+          <t>669284514787364</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fariha Jahan Anonna</t>
+          <t>saadman ahmmed sakib</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8801834988062</t>
+          <t>8801869533858</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fariha Jahan Anonna House No. 09, Road No.04, North Tallah , Fatullah, narayanganj, Dhaka, Narayanganj,, Narayanganj Sadar Bangladesh</t>
+          <t>saadman ahmmed sakib 207/3 tootpara main road,khulna, Khulna, Khulna - Town, Khulna Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>621</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>669106388232288</t>
+          <t>669284313079853</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shahriar</t>
+          <t>Rashed</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8801997199293</t>
+          <t>8801717501789</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shahriar Daraz Chittagong University Post Office Collection Point-4331 ,Close to Fountain Circle, CU Library,, Chittagong University Sub Post Office (SO), Hathajari, Chittagong, Chattogram, Chattogram - Hathazari, Hathazari, Hathazari Bangladesh</t>
+          <t>Rashed Navy Hospital get, Chattogram, Chattogram Sadar, Patenga Bangladesh</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>565</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>668489442867225</t>
+          <t>668639878304630</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sraboni</t>
+          <t>Fahamida</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8801727828137</t>
+          <t>8801878580455</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sraboni APARAJITA KUTIR 64/A R K MISSION ROAD, Dhaka, Dhaka - South, Tikatuli Bangladesh</t>
+          <t>Fahamida �মাহা�দ নগর, আলমগীর সড়ক � নং �রাড, Chattogram, Chattogram Sadar, Bayezid Bostami Bangladesh</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1108</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>668493209328945</t>
+          <t>668644655560300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Umme Kulsum Labony</t>
+          <t>Sabina Yeasmin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8801679044005</t>
+          <t>8801987847233</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Umme Kulsum Labony eunoos trade center level-5 , dilkusha, motijhil dhaka, Dhaka, Dhaka - South, Motijheel, Bangladesh</t>
+          <t>Sabina Yeasmin Dalia-303, BSL Residential Complex, Dhaka, Dhaka - North, Mirpur Section 13 Bangladesh</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1240</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>668482441784621</t>
+          <t>668640448634612</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Al Amin</t>
+          <t>Mamtaj Begum</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8801534306351</t>
+          <t>8801725599505</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al Amin Malibagh Dhaka,Rajuk Officers Quarter Building no.1, Dhaka, Dhaka - North, Malibag railgate Bangladesh</t>
+          <t>Mamtaj Begum House no. 1 Road23 Sector7, Dhaka, Dhaka - North, Uttara Sector 7 Assure Raiyan Bangladesh</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>305</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>669105144294305</t>
+          <t>669275130140393</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Saleha</t>
+          <t>Rabby Ahmed</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8801617020614</t>
+          <t>8801617302743</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Saleha dalal Bazar, lakshmipur, Chattogram, Lakshmipur, Lakshmipur Sadar Dalal Bazar Bangladesh</t>
+          <t>Rabby Ahmed 42/5 West Raza Bazar Road, Dhaka, Dhaka - North, Farmgate Beside leguna stand a silver big gate, Bangladesh</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1021</v>
+        <v>901</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>668481425020159</t>
+          <t>669270325588397</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hasib</t>
+          <t>Busra</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8801730024273</t>
+          <t>8801304308702</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>hasib AK school Road, Amtali, Barishal, Barguna, Barguna - Amtoli Bangladesh</t>
+          <t>Busra বাস��া� �রাড, Barishal, Pirojpur, Bhandaria বাস��াে�র সামেন Bangladesh</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>669105929590278</t>
+          <t>669270911944264</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anita Chadni</t>
+          <t>Jarin Ebnat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8801712021079</t>
+          <t>8801745297764</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Anita Chadni 22/16,khilji Road,Mohammadpur. Building name is Masud garden, flat no is 5D, Dhaka, Dhaka -, North, Shyamoli Bangladesh</t>
+          <t>Jarin Ebnat moulana saheb ar goli 7 Tola building..bagmara road, Mymensingh, Mymensingh - Town, Chorpara, Area Bangladesh</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>305</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>668477261876983</t>
+          <t>669257185484737</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Prof. Dr. Ummay Salma</t>
+          <t>MD. Rafatul Islam</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8801727696043</t>
+          <t>8801631797541</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Prof. Dr. Ummay Salma A/3 Professors Quartar, HSTU Campus, HSTU, Basherhat, Dinajpur, Rangpur, Dinajpur,, Dinajpur Sadar Bangladesh</t>
+          <t>MD. Rafatul Islam Mowlana Bhasani Hall, Dhaka, Savar, Jahangirnagar University Bangladesh</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>712</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>668477841816827</t>
+          <t>669252353832600</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Moon</t>
+          <t>neel</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8801715134442</t>
+          <t>8801576970844</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Moon 48/1 West Hazipara, Dhaka, Dhaka, Dhaka - South, Moghbazar Bangladesh</t>
+          <t>neel Mirpur 10, Block C, Road 21, House 09, Dhaka, Dhaka - North, Kafrul Bangladesh</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1417</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>668465682788871</t>
+          <t>669258154350729</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Abu talha</t>
+          <t>Sagor</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8801515636399</t>
+          <t>8801711209530</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Abu talha road no 8, dit project , south badda,badda, dhaka1212, Dhaka, Dhaka - North, South Badda Bangladesh</t>
+          <t>Sagor 36/1, Mid Paikpara, Rahmania Hoteler Goli, Mirpur, Dhaka, Dhaka - North, Mirpur 1 Bangladesh</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2148,713 +2148,717 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>668477438436754</t>
+          <t>668638611328638</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tanzil Alfy</t>
+          <t>Tithi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8801633764080</t>
+          <t>8801992213999</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Tanzil Alfy 1/1Metropolitan Housing Society, Camper Bazar, Babar Road,Mohammadpur, Dhaka, Dhaka, Dhaka -, North, Mohammadpur Residential Area Bangladesh</t>
+          <t>Tithi katia, narkeltola, Khulna, Satkhira, Satkhira Sadar Bangladesh</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>942</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>668464665183762</t>
+          <t>668636607946489</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Raihan</t>
+          <t>Nazmus Sakib</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8801711504153</t>
+          <t>8801924333112</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Raihan 62/1, West Malibagh, 3rd Floor, Dhaka -1217. (near Fortune Shopping Mall), Dhaka, Dhaka - South, Malibag, Bangladesh</t>
+          <t>Nazmus Sakib Chitalmari Bazar, Khulna, Bagerhat, Chitalmari Bangladesh</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>669093160380687</t>
+          <t>669233997375030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sayuri Matsuda</t>
+          <t>julia</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8801752045086</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Sayuri Matsuda Kowshik Garden, B2, KO-45/1/2 – Lichubagan Joarshahara, Dhaka 1231, Dhaka, Dhaka - North,, Kalachandpur Bangladesh</t>
-        </is>
-      </c>
+          <t>8801768867877</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>287</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>668477619908424</t>
+          <t>668602898279015</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>jannat afroze</t>
+          <t>Afroja Afrin</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8801772574337</t>
+          <t>8801784570442</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>jannat afroze house number 3 road number 7 nasirabad housing properties, Chattogram, Chattogram Sadar,Nasirabad nasirabad housing properties Bangladesh</t>
+          <t>Afroja Afrin 27/D/2,Golapbug,Dhaka-1203, Dhaka, Dhaka - South, Jatrabari Near Mamun Pharmacy 2nd goli, Bangladesh</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>384</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>668469816905695</t>
+          <t>668605073377309</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Afrin Jahan</t>
+          <t>Jannatara jerin</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8801740867767</t>
+          <t>8801952660487</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Afrin Jahan Building No-1, F-10, Govt. Officers Quarter, Milk Vita road,Mirpur-6.(Cholontikar Mor), Dhaka, Dhaka -, North, Mirpur Section 6 Bangladesh</t>
+          <t>Jannatara jerin Daraz Jahangirnagar University Post Office Collection Point-1342 , Jahangirnagar University, Post, Code 1342, Dhaka, Savar, Jahangirnagar University Bangladesh</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>551</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>669092119891598</t>
+          <t>668614045987738</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Shibly Sadika</t>
+          <t>Mahmud Uz Zaman</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8801750719528</t>
+          <t>8801701831576</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Shibly Sadika 28 no polan box road kushtia, Khulna, Kushtia, Kushtia Sadar Bangladesh</t>
+          <t>Mahmud Uz Zaman Assistant Professor's Quarters, Khulna University, Khulna 9208, Khulna, Khulna - Town, Khulna, University Bangladesh</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>961</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>669091318323526</t>
+          <t>668615217996709</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sarika tasnim</t>
+          <t>MD.Masum Mahmud</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8801626780056</t>
+          <t>8801817528846</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sarika tasnim Nowjor , tangail road , Shanon sweaters Ltd ( Tazin tower), Dhaka, Gazipur, Chowrasta Baypass Beside, hazi filling station Bangladesh</t>
+          <t>MD.Masum Mahmud Mamata Manjil 122 Mati Kata Road.Dhaka Cantonment Dhaka 1206, Dhaka, Dhaka - North,, Matikata Bangladesh</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>669084956210835</t>
+          <t>668603687687425</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>M. Abrar Fahad</t>
+          <t>nayna nowshin</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8801913800389</t>
+          <t>8801917401545</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>M. Abrar Fahad block-k, road-16, house-752, flat-8B, Dhaka, Dhaka - North, Bashundhara R/A Bangladesh</t>
+          <t>nayna nowshin skyview Majesty, 23 kabi jashimuddin Road, near kamlapur railway station,dhaka, Dhaka, Dhaka -, South, Motijheel Bangladesh</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1515</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>668447250176910</t>
+          <t>669235370020018</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>11 12 2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sk Sabbir Uddin</t>
+          <t>Ismail TD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8801641757927</t>
+          <t>8801956597701</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sk Sabbir Uddin Daraz MGX Uttara Collection Point , House: 4, Road: 3, Sector-6, Uttara-1230, Dhaka, Dhaka -, North, Uttara Sector 6 Bangladesh</t>
+          <t>Ismail TD Road-11,Block-C,Mirpur-13,Dhaka-1216, Dhaka, Dhaka - North, Mirpur Section 13 Bangladesh</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>254</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>669085937118163</t>
+          <t>669238143740060</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Md. Ashraful Islam</t>
+          <t>Israt</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8801839357213</t>
+          <t>8801864836682</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Md. Ashraful Islam 2 no mailer matha, Chattogram, Chattogram Sadar, Chattogram Bandar abdul jolil road, Bangladesh</t>
+          <t>Israt B.M.T.F school gate,seltak first building,shimultoli,, Dhaka, Gazipur, Shimultoli Joydebpur Bangladesh</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>668451634171126</t>
+          <t>669237132512496</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>jannat jhuma</t>
+          <t>MD RIAJ SHEIKH</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8801709277384</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>8801799396584</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MD RIAJ SHEIKH House No327, Moynarbag, Dhaka, Dhaka - North, Badda Hossain Market Besides Ali Hossain, Chairman's House Bangladesh</t>
+        </is>
+      </c>
       <c r="F68" t="n">
-        <v>636</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>668444048078041</t>
+          <t>668601460915777</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Md Al Mamun</t>
+          <t>Neeshat Tasnim</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8801682287410</t>
+          <t>8801648493416</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Md Al Mamun 137. North South Road, Alubazar, Dhaka, Dhaka, Dhaka - South, Bangshal Bangladesh</t>
+          <t>Neeshat Tasnim Daraz Dhaka Mirpur Post Office Collection Point-1216, Mirpur Road, Beside National Heart, Foundation Hospital, Section 2, Dhaka, Dhaka, Dhaka - North, Mirpur Section 2 Bangladesh</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>377</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>669080515436959</t>
+          <t>669235736579753</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>foysal ahmed</t>
+          <t>Sadia Afrin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8801828641777</t>
+          <t>8801973849011</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>foysal ahmed 55/1-a,shah ali bag,Rabbi Telecom and gn st., Dhaka, Dhaka - North, Mirpur 1 Bangladesh</t>
+          <t>Sadia Afrin house 174/B, road no 23, 3 tala.. Mohakhali DOHS, Dhaka, Dhaka - North, Mohakhali DOHS Bangladesh</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>377</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>668458400939508</t>
+          <t>668610609532736</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>REAJ HOWLADER</t>
+          <t>Robi Islam</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8801681831777</t>
+          <t>8801727174649</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>REAJ HOWLADER bank colony 1/C/4 chapra mosjid, Dhaka, Dhaka - North, Mirpur 60 Feet Bangladesh</t>
+          <t>Robi Islam 33/A Ahmedbagh Dhaka, Dhaka, Dhaka - South, Ahmedbagh Bangladesh</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>923</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>668432897816841</t>
+          <t>668598437897193</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>suny</t>
+          <t>Rakibul H. Rocky</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8801600259714</t>
+          <t>8801518614119</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>suny Amtoil Bazar, Dhaka, Tangail - Sakhipur, Sakhipur Sadar Bangladesh</t>
+          <t>Rakibul H. Rocky 278/C, Namapara (Lal Miyar Tek), Manikdi, Dhaka - 1206, Dhaka, Dhaka - North, Dhaka -, Cantonment Bangladesh</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1015</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>669067984241982</t>
+          <t>669221589584743</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Suraiya akter</t>
+          <t>Sadia Sultana Shammi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8801810099661</t>
+          <t>8801681776722</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Suraiya akter DEX Satkhira Station Nabarun School mor, East Side of Satkhira Govt. Women's College student, Hostel, Sultanpur, Satkhira, Khulna, Satkhira, Satkhira Sadar 9400 Bangladesh</t>
+          <t>Sadia Sultana Shammi House No-98, 3rd Floor, Right Side Flat, Sileti Para, Dokkhin Purbo Moneshwar Road, just, Opposite Of jigatola Gabtola Boro Moshjid Monershor Road, jigatola, Dhaka 1209, Dhaka, Dhaka - South,, Hazaribagh Bangladesh</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>290</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>669053175367749</t>
+          <t>668589877048140</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>maksuda begum</t>
+          <t>Tahamina</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8801796200599</t>
+          <t>8801852351246</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>maksuda begum �ীমল�া� আবািসক এলাকা,�রাড-�,িব��ং-14 heights চােবাড�,বােয়�জদ �বা�ািম, Chattogram,, Chattogram Sadar, Khulshi Bangladesh</t>
+          <t>Tahamina Daraz Sitakunda Post Office Collection Point-4310 , Near Bhumi Office, Sitakund Bazar Rd, Shitakundo,, Post Code - 4310, Chattogram, Chattogram - Sitakunda, Sitakunda Sitakunda Bangladesh</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>365</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>669053169918779</t>
+          <t>669220144203975</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Md Arif Rahman</t>
+          <t>Reya Podder</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8801810099656</t>
+          <t>8801876309688</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Md Arif Rahman DEX DINAJPUR STATION Holding No. 420 Neemnagar Balubari. Sadar. Dinajpur. Post code, 5200(new), Rangpur, Dinajpur, Dinajpur Sadar 5200 Bangladesh</t>
+          <t>Reya Podder 6th floor, 68/C,Siddheshwari Road, Dhaka, Dhaka, Dhaka - South, Siddheshwari Road Bangladesh</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>668439442841778</t>
+          <t>668588081278041</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>শািমমা</t>
+          <t>Md Al Mamun</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8801919999345</t>
+          <t>8801682287410</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>শািমমা House 24, Road 04, Sector 5, Uttara, Dhaka., Dhaka, Dhaka - North, Uttara Sector 5 Bangladesh</t>
+          <t>Md Al Mamun 137. North South Road, Alubazar, Dhaka, Dhaka, Dhaka - South, Bangshal Bangladesh</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>668441244683414</t>
+          <t>669219344103819</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Yasmin Rinvee</t>
+          <t>আিনকা িমম</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8801913294298</t>
+          <t>8801810099626</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Yasmin Rinvee Road No-01, Chowdhury Tower, Opposite Provati Shikhiya Niketon Gate, Chattogram, Chattogram, Sadar, Colonel Hat Bangladesh</t>
+          <t>আিনকা িমম DEX OLD TOWN STATION, 88/89, Nazim Uddin Road, Rajanigandha Villa, Old Town, Dhaka, Dhaka,, Dhaka - South, Chawk Bazar 1211 Bangladesh</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>559</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>668434029499621</t>
+          <t>668589063859973</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pritha Mrittika</t>
+          <t>Toukir Hasan Rifat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8801912180037</t>
+          <t>8801707796196</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Pritha Mrittika 271/36, Niribili Housing, West Dhanmondi, Shankar, Dhaka, Dhaka, Dhaka - South, Dhanmondi 9A, Bangladesh</t>
+          <t>Toukir Hasan Rifat Block B lake side,House no 31, Road no 1., Dhaka, Dhaka - North, Aftab nagar Bangladesh</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>270</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>669064136953537</t>
+          <t>669212979836174</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dibos Roy</t>
+          <t>Mehjabeen Hoque maliha</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8801810099616</t>
+          <t>8801625291977</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Dibos Roy DEX MIRPUR Zooroad Station Mollik Tower , 13/14 Zoo Road, Mirpur 1, Dhaka, Dhaka - North, Mirpur 1, 1216 Bangladesh</t>
+          <t>Mehjabeen Hoque maliha sirajuddin sarkar road,dattapara, santibag tongi-gazipur, Dhaka, Tongi, Bonomala, Bangladesh</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>265</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>668434429766429</t>
+          <t>668589849288155</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>06 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Abida Bushra</t>
+          <t>Tamila Nazer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8801719398409</t>
+          <t>8801537268552</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Abida Bushra RK road islambag, Rangpur, Rangpur, RK Road Bangladesh</t>
+          <t>Tamila Nazer 5 no R/C Church road Patharghata, Chattogram, Chattogram Sadar, Chattogram GPO CPDL Down, Town 11E Bangladesh</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>621</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>668431811976112</t>
+          <t>669217724862966</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>05 12 2024</t>
+          <t>10 12 2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>jewel</t>
+          <t>Sujon rahman</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8801823772200</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>8801736556140</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sujon rahman Rajbari town, Dhaka, Rajbari - Town, Rajbari Railgate Bangladesh</t>
+        </is>
+      </c>
       <c r="F81" t="n">
-        <v>268</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="82">
@@ -2868,7 +2872,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>48404</v>
+        <v>57028</v>
       </c>
     </row>
   </sheetData>
